--- a/NoFlow_Boundaries.xlsx
+++ b/NoFlow_Boundaries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hardknox47/Desktop/HWRS482/hw482/GroMore_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amanda_triplett/Documents/Courses/groundwater_Modeling/GroMore_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D51EBC3-E360-8244-88E3-4AEAB882DAC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412CC63E-7B98-4841-9D84-09CE8BC652D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-3140" windowWidth="38400" windowHeight="21140" xr2:uid="{76ED07CC-4216-B149-B9A3-8A78C10F09A5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{76ED07CC-4216-B149-B9A3-8A78C10F09A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -386,18 +386,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -406,6 +394,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -416,10 +407,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -427,6 +418,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,6 +443,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7E174AB-8BC2-F845-BE15-8F6DBE9483ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17030700" y="2451100"/>
+          <a:ext cx="16611600" cy="10591800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -745,7 +794,7 @@
   <dimension ref="A1:BC52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BE13" sqref="BE13:BI32"/>
+      <selection activeCell="BI30" sqref="BI30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -811,7 +860,7 @@
       <c r="AW1" s="10"/>
       <c r="AX1" s="10"/>
       <c r="AY1" s="10"/>
-      <c r="AZ1" s="21"/>
+      <c r="AZ1" s="17"/>
     </row>
     <row r="2" spans="1:55">
       <c r="A2">
@@ -869,7 +918,7 @@
       <c r="AW2" s="2"/>
       <c r="AX2" s="2"/>
       <c r="AY2" s="2"/>
-      <c r="AZ2" s="22"/>
+      <c r="AZ2" s="18"/>
     </row>
     <row r="3" spans="1:55">
       <c r="A3">
@@ -927,7 +976,7 @@
       <c r="AW3" s="2"/>
       <c r="AX3" s="2"/>
       <c r="AY3" s="2"/>
-      <c r="AZ3" s="22"/>
+      <c r="AZ3" s="18"/>
     </row>
     <row r="4" spans="1:55">
       <c r="A4">
@@ -985,7 +1034,7 @@
       <c r="AW4" s="2"/>
       <c r="AX4" s="2"/>
       <c r="AY4" s="2"/>
-      <c r="AZ4" s="22"/>
+      <c r="AZ4" s="18"/>
     </row>
     <row r="5" spans="1:55">
       <c r="A5">
@@ -1043,7 +1092,7 @@
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
       <c r="AY5" s="2"/>
-      <c r="AZ5" s="22"/>
+      <c r="AZ5" s="18"/>
     </row>
     <row r="6" spans="1:55">
       <c r="A6">
@@ -1101,7 +1150,7 @@
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
       <c r="AY6" s="2"/>
-      <c r="AZ6" s="22"/>
+      <c r="AZ6" s="18"/>
     </row>
     <row r="7" spans="1:55">
       <c r="A7">
@@ -1159,7 +1208,7 @@
       <c r="AW7" s="2"/>
       <c r="AX7" s="2"/>
       <c r="AY7" s="2"/>
-      <c r="AZ7" s="22"/>
+      <c r="AZ7" s="18"/>
     </row>
     <row r="8" spans="1:55">
       <c r="A8">
@@ -1217,7 +1266,7 @@
       <c r="AW8" s="2"/>
       <c r="AX8" s="2"/>
       <c r="AY8" s="2"/>
-      <c r="AZ8" s="22"/>
+      <c r="AZ8" s="18"/>
     </row>
     <row r="9" spans="1:55">
       <c r="A9">
@@ -1275,7 +1324,7 @@
       <c r="AW9" s="2"/>
       <c r="AX9" s="2"/>
       <c r="AY9" s="2"/>
-      <c r="AZ9" s="22"/>
+      <c r="AZ9" s="18"/>
     </row>
     <row r="10" spans="1:55">
       <c r="A10">
@@ -1333,7 +1382,7 @@
       <c r="AW10" s="2"/>
       <c r="AX10" s="2"/>
       <c r="AY10" s="2"/>
-      <c r="AZ10" s="22"/>
+      <c r="AZ10" s="18"/>
     </row>
     <row r="11" spans="1:55">
       <c r="A11">
@@ -1391,7 +1440,7 @@
       <c r="AW11" s="2"/>
       <c r="AX11" s="2"/>
       <c r="AY11" s="2"/>
-      <c r="AZ11" s="22"/>
+      <c r="AZ11" s="18"/>
     </row>
     <row r="12" spans="1:55">
       <c r="A12">
@@ -1451,7 +1500,7 @@
       <c r="AW12" s="2"/>
       <c r="AX12" s="2"/>
       <c r="AY12" s="2"/>
-      <c r="AZ12" s="22"/>
+      <c r="AZ12" s="18"/>
     </row>
     <row r="13" spans="1:55">
       <c r="A13">
@@ -1509,11 +1558,11 @@
       <c r="AW13" s="2"/>
       <c r="AX13" s="2"/>
       <c r="AY13" s="2"/>
-      <c r="AZ13" s="22"/>
-      <c r="BB13" s="26" t="s">
+      <c r="AZ13" s="18"/>
+      <c r="BB13" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="BC13" s="26"/>
+      <c r="BC13" s="23"/>
     </row>
     <row r="14" spans="1:55">
       <c r="A14">
@@ -1571,9 +1620,9 @@
       <c r="AW14" s="2"/>
       <c r="AX14" s="2"/>
       <c r="AY14" s="2"/>
-      <c r="AZ14" s="22"/>
-      <c r="BB14" s="26"/>
-      <c r="BC14" s="26"/>
+      <c r="AZ14" s="18"/>
+      <c r="BB14" s="23"/>
+      <c r="BC14" s="23"/>
     </row>
     <row r="15" spans="1:55">
       <c r="A15">
@@ -1631,9 +1680,9 @@
       <c r="AW15" s="2"/>
       <c r="AX15" s="2"/>
       <c r="AY15" s="2"/>
-      <c r="AZ15" s="22"/>
-      <c r="BB15" s="26"/>
-      <c r="BC15" s="26"/>
+      <c r="AZ15" s="18"/>
+      <c r="BB15" s="23"/>
+      <c r="BC15" s="23"/>
     </row>
     <row r="16" spans="1:55">
       <c r="A16">
@@ -1691,9 +1740,9 @@
       <c r="AW16" s="2"/>
       <c r="AX16" s="2"/>
       <c r="AY16" s="2"/>
-      <c r="AZ16" s="22"/>
-      <c r="BB16" s="26"/>
-      <c r="BC16" s="26"/>
+      <c r="AZ16" s="18"/>
+      <c r="BB16" s="23"/>
+      <c r="BC16" s="23"/>
     </row>
     <row r="17" spans="1:55">
       <c r="A17">
@@ -1751,11 +1800,11 @@
       <c r="AW17" s="2"/>
       <c r="AX17" s="2"/>
       <c r="AY17" s="2"/>
-      <c r="AZ17" s="22"/>
-      <c r="BB17" s="27" t="s">
+      <c r="AZ17" s="18"/>
+      <c r="BB17" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="BC17" s="27"/>
+      <c r="BC17" s="25"/>
     </row>
     <row r="18" spans="1:55">
       <c r="A18">
@@ -1813,9 +1862,9 @@
       <c r="AW18" s="2"/>
       <c r="AX18" s="2"/>
       <c r="AY18" s="2"/>
-      <c r="AZ18" s="22"/>
-      <c r="BB18" s="27"/>
-      <c r="BC18" s="27"/>
+      <c r="AZ18" s="18"/>
+      <c r="BB18" s="25"/>
+      <c r="BC18" s="25"/>
     </row>
     <row r="19" spans="1:55">
       <c r="A19">
@@ -1873,11 +1922,11 @@
       <c r="AW19" s="2"/>
       <c r="AX19" s="2"/>
       <c r="AY19" s="2"/>
-      <c r="AZ19" s="22"/>
-      <c r="BB19" s="28" t="s">
+      <c r="AZ19" s="18"/>
+      <c r="BB19" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="BC19" s="28"/>
+      <c r="BC19" s="24"/>
     </row>
     <row r="20" spans="1:55">
       <c r="A20">
@@ -1939,9 +1988,9 @@
       <c r="AW20" s="2"/>
       <c r="AX20" s="2"/>
       <c r="AY20" s="2"/>
-      <c r="AZ20" s="22"/>
-      <c r="BB20" s="28"/>
-      <c r="BC20" s="28"/>
+      <c r="AZ20" s="18"/>
+      <c r="BB20" s="24"/>
+      <c r="BC20" s="24"/>
     </row>
     <row r="21" spans="1:55">
       <c r="A21">
@@ -2003,11 +2052,11 @@
       <c r="AW21" s="2"/>
       <c r="AX21" s="2"/>
       <c r="AY21" s="2"/>
-      <c r="AZ21" s="22"/>
-      <c r="BB21" s="29" t="s">
+      <c r="AZ21" s="18"/>
+      <c r="BB21" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="BC21" s="29"/>
+      <c r="BC21" s="26"/>
     </row>
     <row r="22" spans="1:55">
       <c r="A22">
@@ -2065,9 +2114,9 @@
       <c r="AW22" s="3"/>
       <c r="AX22" s="3"/>
       <c r="AY22" s="3"/>
-      <c r="AZ22" s="22"/>
-      <c r="BB22" s="29"/>
-      <c r="BC22" s="29"/>
+      <c r="AZ22" s="18"/>
+      <c r="BB22" s="26"/>
+      <c r="BC22" s="26"/>
     </row>
     <row r="23" spans="1:55">
       <c r="A23">
@@ -2125,11 +2174,11 @@
       <c r="AW23" s="3"/>
       <c r="AX23" s="3"/>
       <c r="AY23" s="3"/>
-      <c r="AZ23" s="22"/>
-      <c r="BB23" s="30" t="s">
+      <c r="AZ23" s="18"/>
+      <c r="BB23" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="BC23" s="30"/>
+      <c r="BC23" s="27"/>
     </row>
     <row r="24" spans="1:55">
       <c r="A24">
@@ -2187,9 +2236,9 @@
       <c r="AW24" s="3"/>
       <c r="AX24" s="3"/>
       <c r="AY24" s="3"/>
-      <c r="AZ24" s="22"/>
-      <c r="BB24" s="30"/>
-      <c r="BC24" s="30"/>
+      <c r="AZ24" s="18"/>
+      <c r="BB24" s="27"/>
+      <c r="BC24" s="27"/>
     </row>
     <row r="25" spans="1:55">
       <c r="A25">
@@ -2248,10 +2297,10 @@
       <c r="AX25" s="5"/>
       <c r="AY25" s="5"/>
       <c r="AZ25" s="6"/>
-      <c r="BB25" s="17" t="s">
+      <c r="BB25" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="BC25" s="17"/>
+      <c r="BC25" s="28"/>
     </row>
     <row r="26" spans="1:55">
       <c r="A26">
@@ -2311,9 +2360,9 @@
       <c r="AW26" s="3"/>
       <c r="AX26" s="3"/>
       <c r="AY26" s="3"/>
-      <c r="AZ26" s="22"/>
-      <c r="BB26" s="18"/>
-      <c r="BC26" s="18"/>
+      <c r="AZ26" s="18"/>
+      <c r="BB26" s="29"/>
+      <c r="BC26" s="29"/>
     </row>
     <row r="27" spans="1:55">
       <c r="A27">
@@ -2371,11 +2420,11 @@
       <c r="AW27" s="3"/>
       <c r="AX27" s="3"/>
       <c r="AY27" s="3"/>
-      <c r="AZ27" s="22"/>
-      <c r="BB27" s="19" t="s">
+      <c r="AZ27" s="18"/>
+      <c r="BB27" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="BC27" s="19"/>
+      <c r="BC27" s="30"/>
     </row>
     <row r="28" spans="1:55">
       <c r="A28">
@@ -2433,9 +2482,9 @@
       <c r="AW28" s="3"/>
       <c r="AX28" s="3"/>
       <c r="AY28" s="3"/>
-      <c r="AZ28" s="22"/>
-      <c r="BB28" s="19"/>
-      <c r="BC28" s="19"/>
+      <c r="AZ28" s="18"/>
+      <c r="BB28" s="30"/>
+      <c r="BC28" s="30"/>
     </row>
     <row r="29" spans="1:55">
       <c r="A29">
@@ -2501,7 +2550,7 @@
       <c r="AW29" s="2"/>
       <c r="AX29" s="2"/>
       <c r="AY29" s="2"/>
-      <c r="AZ29" s="22"/>
+      <c r="AZ29" s="18"/>
       <c r="BB29" s="20" t="s">
         <v>4</v>
       </c>
@@ -2573,7 +2622,7 @@
       <c r="AW30" s="2"/>
       <c r="AX30" s="2"/>
       <c r="AY30" s="2"/>
-      <c r="AZ30" s="22"/>
+      <c r="AZ30" s="18"/>
       <c r="BB30" s="20"/>
       <c r="BC30" s="20"/>
     </row>
@@ -2633,11 +2682,11 @@
       <c r="AW31" s="2"/>
       <c r="AX31" s="2"/>
       <c r="AY31" s="2"/>
-      <c r="AZ31" s="22"/>
-      <c r="BB31" s="24" t="s">
+      <c r="AZ31" s="18"/>
+      <c r="BB31" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="BC31" s="25"/>
+      <c r="BC31" s="22"/>
     </row>
     <row r="32" spans="1:55">
       <c r="A32">
@@ -2695,9 +2744,9 @@
       <c r="AW32" s="2"/>
       <c r="AX32" s="2"/>
       <c r="AY32" s="2"/>
-      <c r="AZ32" s="22"/>
-      <c r="BB32" s="25"/>
-      <c r="BC32" s="25"/>
+      <c r="AZ32" s="18"/>
+      <c r="BB32" s="22"/>
+      <c r="BC32" s="22"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33">
@@ -2755,7 +2804,7 @@
       <c r="AW33" s="2"/>
       <c r="AX33" s="2"/>
       <c r="AY33" s="2"/>
-      <c r="AZ33" s="22"/>
+      <c r="AZ33" s="18"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34">
@@ -2813,7 +2862,7 @@
       <c r="AW34" s="2"/>
       <c r="AX34" s="2"/>
       <c r="AY34" s="2"/>
-      <c r="AZ34" s="22"/>
+      <c r="AZ34" s="18"/>
     </row>
     <row r="35" spans="1:52">
       <c r="A35">
@@ -2871,7 +2920,7 @@
       <c r="AW35" s="2"/>
       <c r="AX35" s="2"/>
       <c r="AY35" s="2"/>
-      <c r="AZ35" s="22"/>
+      <c r="AZ35" s="18"/>
     </row>
     <row r="36" spans="1:52">
       <c r="A36">
@@ -2929,7 +2978,7 @@
       <c r="AW36" s="2"/>
       <c r="AX36" s="2"/>
       <c r="AY36" s="2"/>
-      <c r="AZ36" s="22"/>
+      <c r="AZ36" s="18"/>
     </row>
     <row r="37" spans="1:52">
       <c r="A37">
@@ -2987,7 +3036,7 @@
       <c r="AW37" s="2"/>
       <c r="AX37" s="2"/>
       <c r="AY37" s="2"/>
-      <c r="AZ37" s="22"/>
+      <c r="AZ37" s="18"/>
     </row>
     <row r="38" spans="1:52">
       <c r="A38">
@@ -3047,7 +3096,7 @@
       <c r="AW38" s="2"/>
       <c r="AX38" s="2"/>
       <c r="AY38" s="2"/>
-      <c r="AZ38" s="22"/>
+      <c r="AZ38" s="18"/>
     </row>
     <row r="39" spans="1:52">
       <c r="A39">
@@ -3107,7 +3156,7 @@
       <c r="AW39" s="2"/>
       <c r="AX39" s="2"/>
       <c r="AY39" s="2"/>
-      <c r="AZ39" s="22"/>
+      <c r="AZ39" s="18"/>
     </row>
     <row r="40" spans="1:52">
       <c r="A40">
@@ -3165,7 +3214,7 @@
       <c r="AW40" s="2"/>
       <c r="AX40" s="2"/>
       <c r="AY40" s="2"/>
-      <c r="AZ40" s="22"/>
+      <c r="AZ40" s="18"/>
     </row>
     <row r="41" spans="1:52">
       <c r="A41">
@@ -3223,7 +3272,7 @@
       <c r="AW41" s="2"/>
       <c r="AX41" s="2"/>
       <c r="AY41" s="2"/>
-      <c r="AZ41" s="22"/>
+      <c r="AZ41" s="18"/>
     </row>
     <row r="42" spans="1:52">
       <c r="A42">
@@ -3281,7 +3330,7 @@
       <c r="AW42" s="2"/>
       <c r="AX42" s="2"/>
       <c r="AY42" s="2"/>
-      <c r="AZ42" s="22"/>
+      <c r="AZ42" s="18"/>
     </row>
     <row r="43" spans="1:52">
       <c r="A43">
@@ -3339,7 +3388,7 @@
       <c r="AW43" s="2"/>
       <c r="AX43" s="2"/>
       <c r="AY43" s="2"/>
-      <c r="AZ43" s="22"/>
+      <c r="AZ43" s="18"/>
     </row>
     <row r="44" spans="1:52">
       <c r="A44">
@@ -3397,7 +3446,7 @@
       <c r="AW44" s="2"/>
       <c r="AX44" s="2"/>
       <c r="AY44" s="2"/>
-      <c r="AZ44" s="22"/>
+      <c r="AZ44" s="18"/>
     </row>
     <row r="45" spans="1:52">
       <c r="A45">
@@ -3455,7 +3504,7 @@
       <c r="AW45" s="2"/>
       <c r="AX45" s="2"/>
       <c r="AY45" s="2"/>
-      <c r="AZ45" s="22"/>
+      <c r="AZ45" s="18"/>
     </row>
     <row r="46" spans="1:52">
       <c r="A46">
@@ -3513,7 +3562,7 @@
       <c r="AW46" s="2"/>
       <c r="AX46" s="2"/>
       <c r="AY46" s="2"/>
-      <c r="AZ46" s="22"/>
+      <c r="AZ46" s="18"/>
     </row>
     <row r="47" spans="1:52">
       <c r="A47">
@@ -3571,7 +3620,7 @@
       <c r="AW47" s="2"/>
       <c r="AX47" s="2"/>
       <c r="AY47" s="2"/>
-      <c r="AZ47" s="22"/>
+      <c r="AZ47" s="18"/>
     </row>
     <row r="48" spans="1:52">
       <c r="A48">
@@ -3629,7 +3678,7 @@
       <c r="AW48" s="2"/>
       <c r="AX48" s="2"/>
       <c r="AY48" s="2"/>
-      <c r="AZ48" s="22"/>
+      <c r="AZ48" s="18"/>
     </row>
     <row r="49" spans="1:53">
       <c r="A49">
@@ -3687,7 +3736,7 @@
       <c r="AW49" s="2"/>
       <c r="AX49" s="2"/>
       <c r="AY49" s="2"/>
-      <c r="AZ49" s="22"/>
+      <c r="AZ49" s="18"/>
     </row>
     <row r="50" spans="1:53" ht="17" thickBot="1">
       <c r="A50">
@@ -3745,7 +3794,7 @@
       <c r="AW50" s="14"/>
       <c r="AX50" s="14"/>
       <c r="AY50" s="14"/>
-      <c r="AZ50" s="23"/>
+      <c r="AZ50" s="19"/>
     </row>
     <row r="51" spans="1:53">
       <c r="A51" t="s">
@@ -4076,5 +4125,6 @@
     <mergeCell ref="BB27:BC28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>